--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_37_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_37_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9975141911428136</v>
+        <v>0.9987739391780465</v>
       </c>
       <c r="C2" t="n">
-        <v>0.997572097404434</v>
+        <v>0.9984521428885302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9969333559430205</v>
+        <v>0.9985102528233664</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9945250642156127</v>
+        <v>0.9983421979689047</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9960096745707354</v>
+        <v>0.9986456704305314</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002320393453785562</v>
+        <v>0.001144473959443489</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00226634050035406</v>
+        <v>0.001444856670482297</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001281151606844927</v>
+        <v>0.001433060770459573</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003691179108591717</v>
+        <v>0.0009710349816726601</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002486157622501663</v>
+        <v>0.001202050270523221</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005416213024666221</v>
+        <v>0.003874065457667497</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0481704624618195</v>
+        <v>0.03383007477738542</v>
       </c>
       <c r="N2" t="n">
-        <v>1.001807860987045</v>
+        <v>1.000891680597784</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05022117877542304</v>
+        <v>0.03527029109856773</v>
       </c>
       <c r="P2" t="n">
-        <v>126.1320370310682</v>
+        <v>127.5456203432206</v>
       </c>
       <c r="Q2" t="n">
-        <v>195.6079590485556</v>
+        <v>197.0215423607081</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9974660928535771</v>
+        <v>0.9987491199039493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9975326027825299</v>
+        <v>0.9984309020706585</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9968770579165414</v>
+        <v>0.998479253416274</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9944309038354295</v>
+        <v>0.9983102425362305</v>
       </c>
       <c r="F3" t="n">
-        <v>0.995939842178663</v>
+        <v>0.9986183384200963</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002365291095516888</v>
+        <v>0.001167641662372974</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002303206996287947</v>
+        <v>0.00146468404160141</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001304671228211421</v>
+        <v>0.001462880618356185</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003754661648273793</v>
+        <v>0.0009897524415376667</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002529666438242607</v>
+        <v>0.001226309100337005</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005468711947184508</v>
+        <v>0.003911266074947374</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04863425845550529</v>
+        <v>0.03417077204824283</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001842841561035</v>
+        <v>1.000909730978946</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05070471952475009</v>
+        <v>0.03562549255758611</v>
       </c>
       <c r="P3" t="n">
-        <v>126.0937083596548</v>
+        <v>127.5055384751223</v>
       </c>
       <c r="Q3" t="n">
-        <v>195.5696303771422</v>
+        <v>196.9814604926097</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9974170278222139</v>
+        <v>0.9987237737891966</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9974922289795861</v>
+        <v>0.9984091676652704</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9968195698438085</v>
+        <v>0.9984475752139839</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9943349725499732</v>
+        <v>0.9982775718578053</v>
       </c>
       <c r="F4" t="n">
-        <v>0.995868665077521</v>
+        <v>0.9985903831178453</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002411091148588522</v>
+        <v>0.001191301147928762</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002340894169130801</v>
+        <v>0.001484972155001073</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001328688015092347</v>
+        <v>0.001493353432597891</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003819338124981802</v>
+        <v>0.001008888846868836</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002574013070037075</v>
+        <v>0.001251121139733364</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005521729625918261</v>
+        <v>0.003948845115685609</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04910286293678325</v>
+        <v>0.03451523066602282</v>
       </c>
       <c r="N4" t="n">
-        <v>1.001878525220208</v>
+        <v>1.000928164516948</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05119327346894106</v>
+        <v>0.03598461549185263</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0553517503869</v>
+        <v>127.4654183351321</v>
       </c>
       <c r="Q4" t="n">
-        <v>195.5312737678744</v>
+        <v>196.9413403526196</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9973669815931671</v>
+        <v>0.9986979206747939</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9974509370282475</v>
+        <v>0.9983869410746161</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9967610221836177</v>
+        <v>0.9984152247241068</v>
       </c>
       <c r="E5" t="n">
-        <v>0.994237006534706</v>
+        <v>0.9982441795646</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9957960318485582</v>
+        <v>0.9985618481775037</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002457807106628172</v>
+        <v>0.001215433895403123</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002379438393198204</v>
+        <v>0.001505719701742326</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001353147465728524</v>
+        <v>0.001524472953195142</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003885386408130116</v>
+        <v>0.001028447928238259</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00261926693692932</v>
+        <v>0.001276447643363065</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005575295468141525</v>
+        <v>0.003986781812677359</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04957627564297436</v>
+        <v>0.03486307352203938</v>
       </c>
       <c r="N5" t="n">
-        <v>1.001914922477697</v>
+        <v>1.000946966781968</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05168684033413412</v>
+        <v>0.03634726673838379</v>
       </c>
       <c r="P5" t="n">
-        <v>126.0169714933177</v>
+        <v>127.4253083007642</v>
       </c>
       <c r="Q5" t="n">
-        <v>195.4928935108051</v>
+        <v>196.9012303182516</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9973158985440412</v>
+        <v>0.9986715216195852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9974087067326984</v>
+        <v>0.998364208053982</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9967012843299387</v>
+        <v>0.9983822297695104</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9941369863555037</v>
+        <v>0.9982100570269915</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9957218856880116</v>
+        <v>0.9985326942024343</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002505490890700373</v>
+        <v>0.001240076254655878</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002418858520397534</v>
+        <v>0.001526939978639995</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001378104143389288</v>
+        <v>0.001556212415968906</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00395281960012516</v>
+        <v>0.001048434740330294</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002665463430295617</v>
+        <v>0.0013023235781496</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005629422918846285</v>
+        <v>0.004025119863730797</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05005487879018761</v>
+        <v>0.03521471645002808</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001952073786152</v>
+        <v>1.000966166094847</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05218581860816934</v>
+        <v>0.03671387983381818</v>
       </c>
       <c r="P6" t="n">
-        <v>125.9785411985847</v>
+        <v>127.3851648111315</v>
       </c>
       <c r="Q6" t="n">
-        <v>195.4544632160722</v>
+        <v>196.8610868286189</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9972638092978821</v>
+        <v>0.9986445854384761</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9973655461658055</v>
+        <v>0.9983409510475312</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9966403726525431</v>
+        <v>0.9983485530985245</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9940352391989942</v>
+        <v>0.9981751534578672</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9956464166121689</v>
+        <v>0.9985029275032197</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002554113915536383</v>
+        <v>0.001265219997359519</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002459147015062139</v>
+        <v>0.001548649373297225</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001403551209276628</v>
+        <v>0.001588607655125271</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004021417113092797</v>
+        <v>0.001068879031005037</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002712484161184712</v>
+        <v>0.001328743343065154</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005684087644134135</v>
+        <v>0.004063829472219119</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05053824210967753</v>
+        <v>0.03556993108454835</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001989956874268</v>
+        <v>1.000985756044745</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05268975970486996</v>
+        <v>0.03708421669072565</v>
       </c>
       <c r="P7" t="n">
-        <v>125.9400998391445</v>
+        <v>127.3450185219345</v>
       </c>
       <c r="Q7" t="n">
-        <v>195.4160218566319</v>
+        <v>196.820940539422</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9972106408962275</v>
+        <v>0.9986170848773409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9973214003449257</v>
+        <v>0.9983171709710498</v>
       </c>
       <c r="D8" t="n">
-        <v>0.996578204900525</v>
+        <v>0.9983141571118017</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9939312551977215</v>
+        <v>0.9981394961319769</v>
       </c>
       <c r="F8" t="n">
-        <v>0.995569313678089</v>
+        <v>0.9984725222858349</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002603744284657852</v>
+        <v>0.001290890564044114</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002500355201075979</v>
+        <v>0.001570847030867926</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00142952302534401</v>
+        <v>0.001621694839317881</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004091522697567403</v>
+        <v>0.001089764824448923</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002760522861455707</v>
+        <v>0.001355729831883402</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005739340275140119</v>
+        <v>0.00410293077378015</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05102689765856682</v>
+        <v>0.03592896552983559</v>
       </c>
       <c r="N8" t="n">
-        <v>1.002028624802744</v>
+        <v>1.001005756452843</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0531992183321319</v>
+        <v>0.03745853597565252</v>
       </c>
       <c r="P8" t="n">
-        <v>125.9016095208682</v>
+        <v>127.3048458781462</v>
       </c>
       <c r="Q8" t="n">
-        <v>195.3775315383556</v>
+        <v>196.7807678956336</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9971564399975372</v>
+        <v>0.9985890335929711</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9972762944561101</v>
+        <v>0.9982928454760523</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9965147453375783</v>
+        <v>0.9982790577820961</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9938255905458583</v>
+        <v>0.9981030971626669</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9954908683338713</v>
+        <v>0.9984414755920048</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002654338444440703</v>
+        <v>0.00131707520669417</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002542459568365561</v>
+        <v>0.001593553812682156</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001456034521144669</v>
+        <v>0.001655458603572281</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004162761369733505</v>
+        <v>0.001111085025434309</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002809397945439087</v>
+        <v>0.001383285670254392</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005795135791773116</v>
+        <v>0.00414240257223139</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05152027216970717</v>
+        <v>0.03629153078466338</v>
       </c>
       <c r="N9" t="n">
-        <v>1.002068043638155</v>
+        <v>1.00102615738693</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05371359681763753</v>
+        <v>0.03783653638399188</v>
       </c>
       <c r="P9" t="n">
-        <v>125.8631196576115</v>
+        <v>127.2646835066</v>
       </c>
       <c r="Q9" t="n">
-        <v>195.3390416750989</v>
+        <v>196.7406055240874</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9971010895286326</v>
+        <v>0.9985603923521026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.997230123922814</v>
+        <v>0.9982679573009015</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9964500114003056</v>
+        <v>0.9982432169275667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9937174250028786</v>
+        <v>0.9980658362112774</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9954106426359307</v>
+        <v>0.9984097587532297</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002706005677558284</v>
+        <v>0.00134381054783979</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002585557734545377</v>
+        <v>0.001616785831720928</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001483078412190831</v>
+        <v>0.00168993567687134</v>
       </c>
       <c r="J10" t="n">
-        <v>0.004235686132368021</v>
+        <v>0.00113291012069351</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002859382272279426</v>
+        <v>0.001411436303223774</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005851542583976607</v>
+        <v>0.004182270312879707</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05201928178625964</v>
+        <v>0.03665802160291511</v>
       </c>
       <c r="N10" t="n">
-        <v>1.002108298524631</v>
+        <v>1.001046987380289</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05423385030665895</v>
+        <v>0.03821862947511716</v>
       </c>
       <c r="P10" t="n">
-        <v>125.8245633021978</v>
+        <v>127.2244920164918</v>
       </c>
       <c r="Q10" t="n">
-        <v>195.3004853196852</v>
+        <v>196.7004140339792</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9970446491700098</v>
+        <v>0.9985311717156214</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9971829607778959</v>
+        <v>0.998242519393201</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9963839493951578</v>
+        <v>0.9982066304581577</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9936073785090133</v>
+        <v>0.9980277731608256</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9953289570924075</v>
+        <v>0.9983773877872116</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002758690274887307</v>
+        <v>0.001371086729357307</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002629582460103536</v>
+        <v>0.00164053100196423</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001510677130031538</v>
+        <v>0.001725129993639969</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004309879024326353</v>
+        <v>0.0011552050345642</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002910276150555365</v>
+        <v>0.001440167514102085</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005908503327735472</v>
+        <v>0.004222533309957656</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05252323557138599</v>
+        <v>0.03702818830779205</v>
       </c>
       <c r="N11" t="n">
-        <v>1.002149346058175</v>
+        <v>1.001068238752275</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05475925844774628</v>
+        <v>0.03860455494297142</v>
       </c>
       <c r="P11" t="n">
-        <v>125.7859984999324</v>
+        <v>127.1843032409554</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.2619205174199</v>
+        <v>196.6602252584428</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9969870625444124</v>
+        <v>0.9985013497236814</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9971347320833343</v>
+        <v>0.9982164909073489</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9963166611927062</v>
+        <v>0.9981692986496501</v>
       </c>
       <c r="E12" t="n">
-        <v>0.993495042414383</v>
+        <v>0.9979888096749892</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9952456080707649</v>
+        <v>0.998344309448986</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002812444862121797</v>
+        <v>0.001398924249799073</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00267460182948183</v>
+        <v>0.001664827450988639</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001538788116207599</v>
+        <v>0.001761041288591038</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004385615555670193</v>
+        <v>0.001178027366209031</v>
       </c>
       <c r="K12" t="n">
-        <v>0.002962206452772113</v>
+        <v>0.0014695265610497</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005966059993862753</v>
+        <v>0.004263188019928583</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05303248874154216</v>
+        <v>0.0374021957884704</v>
       </c>
       <c r="N12" t="n">
-        <v>1.002191227240427</v>
+        <v>1.001089927473686</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0552901915796554</v>
+        <v>0.03899448469640447</v>
       </c>
       <c r="P12" t="n">
-        <v>125.7474022324454</v>
+        <v>127.1441034614536</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.2233242499328</v>
+        <v>196.620025478941</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9969283310594945</v>
+        <v>0.9984709040084484</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9970854455091878</v>
+        <v>0.9981898828425343</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9962480380716774</v>
+        <v>0.9981311929845516</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9933805842368042</v>
+        <v>0.997949027039379</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9951606812629322</v>
+        <v>0.9983105239584525</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002867268125278336</v>
+        <v>0.001427343988556667</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002720608683016962</v>
+        <v>0.001689664911534041</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001567456791195406</v>
+        <v>0.001797696994097015</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004462782786579328</v>
+        <v>0.001201329503687387</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003015119788887366</v>
+        <v>0.001499513248892201</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006024169476493603</v>
+        <v>0.004304265361902005</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05354687782941537</v>
+        <v>0.03778020630643336</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00223394104764</v>
+        <v>1.001112069812037</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05582647927593157</v>
+        <v>0.03938858790470676</v>
       </c>
       <c r="P13" t="n">
-        <v>125.7087911505089</v>
+        <v>127.103879824769</v>
       </c>
       <c r="Q13" t="n">
-        <v>195.1847131679963</v>
+        <v>196.5798018422564</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9968683809863922</v>
+        <v>0.9984398370646232</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9970350213593763</v>
+        <v>0.9981626637875963</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9961780822601662</v>
+        <v>0.9980922984563948</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9932634279338518</v>
+        <v>0.9979083608601129</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9950738329539226</v>
+        <v>0.9982760289869947</v>
       </c>
       <c r="G14" t="n">
-        <v>0.002923228887015306</v>
+        <v>0.001456343616936288</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002767677413501668</v>
+        <v>0.00171507270454016</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001596682224163953</v>
+        <v>0.001835111545613706</v>
       </c>
       <c r="J14" t="n">
-        <v>0.004541769082479051</v>
+        <v>0.001225149164839779</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003069230309262991</v>
+        <v>0.001530129644419009</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006082896956439439</v>
+        <v>0.00434575378696932</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05406689270723172</v>
+        <v>0.03816207039635412</v>
       </c>
       <c r="N14" t="n">
-        <v>1.002277541100806</v>
+        <v>1.001134663953001</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05636863226367574</v>
+        <v>0.03978670873950309</v>
       </c>
       <c r="P14" t="n">
-        <v>125.6701329808109</v>
+        <v>127.0636527128167</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.1460549982984</v>
+        <v>196.5395747303041</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9968072135829046</v>
+        <v>0.9984081239557334</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9969834798298655</v>
+        <v>0.998134843234756</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9961067090550348</v>
+        <v>0.9980525772300245</v>
       </c>
       <c r="E15" t="n">
-        <v>0.993143971695705</v>
+        <v>0.9978667728261418</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9949852940047302</v>
+        <v>0.9982407802372626</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002980325973232294</v>
+        <v>0.001485946412040273</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002815789168888349</v>
+        <v>0.001741041969435518</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001626499801535421</v>
+        <v>0.001873321338630018</v>
       </c>
       <c r="J15" t="n">
-        <v>0.004622305985194138</v>
+        <v>0.001249508789841704</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003124394176803338</v>
+        <v>0.001561415064235861</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006142227585451287</v>
+        <v>0.004387733388467228</v>
       </c>
       <c r="M15" t="n">
-        <v>0.05459236185797693</v>
+        <v>0.03854797545968235</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00232202648516</v>
+        <v>1.001157728032194</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05691647172403928</v>
+        <v>0.04018904258031082</v>
       </c>
       <c r="P15" t="n">
-        <v>125.6314451949129</v>
+        <v>127.0234067904418</v>
       </c>
       <c r="Q15" t="n">
-        <v>195.1073672124003</v>
+        <v>196.4993288079292</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9967448216030664</v>
+        <v>0.9983757734661725</v>
       </c>
       <c r="C16" t="n">
-        <v>0.996930801714528</v>
+        <v>0.9981063964196544</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9960337388559611</v>
+        <v>0.9980120772633054</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9930224406639639</v>
+        <v>0.9978242663333821</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9948951101100967</v>
+        <v>0.9982048239856307</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003038566147719853</v>
+        <v>0.001516144174023084</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002864961877253904</v>
+        <v>0.001767595822661999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001656984554919926</v>
+        <v>0.00191228024012702</v>
       </c>
       <c r="J16" t="n">
-        <v>0.004704241705186954</v>
+        <v>0.001274406389581456</v>
       </c>
       <c r="K16" t="n">
-        <v>0.003180582921567322</v>
+        <v>0.001593328435231702</v>
       </c>
       <c r="L16" t="n">
-        <v>0.006202179467475643</v>
+        <v>0.00443065749264614</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05512319065257247</v>
+        <v>0.03893769605437748</v>
       </c>
       <c r="N16" t="n">
-        <v>1.002367402470497</v>
+        <v>1.001181255660965</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05746989899938785</v>
+        <v>0.04059535438755496</v>
       </c>
       <c r="P16" t="n">
-        <v>125.5927390735315</v>
+        <v>126.983169789371</v>
       </c>
       <c r="Q16" t="n">
-        <v>195.0686610910189</v>
+        <v>196.4590918068584</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9966811769013888</v>
+        <v>0.9983427439990185</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9968769707287024</v>
+        <v>0.9980773062852379</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9959593454333323</v>
+        <v>0.9979707365455663</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9928986481757502</v>
+        <v>0.9977807570727244</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9948031375453261</v>
+        <v>0.9981680447062473</v>
       </c>
       <c r="G17" t="n">
-        <v>0.003097975683056345</v>
+        <v>0.001546975731785324</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002915210739614891</v>
+        <v>0.001794750186230365</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001688063888278711</v>
+        <v>0.001952047901206578</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00478770208979972</v>
+        <v>0.001299891346972527</v>
       </c>
       <c r="K17" t="n">
-        <v>0.003237886090699436</v>
+        <v>0.00162597229366109</v>
       </c>
       <c r="L17" t="n">
-        <v>0.006262729904017458</v>
+        <v>0.004474020515960263</v>
       </c>
       <c r="M17" t="n">
-        <v>0.05565946175679698</v>
+        <v>0.03933161237205162</v>
       </c>
       <c r="N17" t="n">
-        <v>1.002413689526263</v>
+        <v>1.001205277091623</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05802900027475342</v>
+        <v>0.04100604053839168</v>
       </c>
       <c r="P17" t="n">
-        <v>125.5540127725153</v>
+        <v>126.9429067895788</v>
       </c>
       <c r="Q17" t="n">
-        <v>195.0299347900028</v>
+        <v>196.4188288070663</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9966162581777546</v>
+        <v>0.9983090325795291</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9968219554322157</v>
+        <v>0.9980475539747713</v>
       </c>
       <c r="D18" t="n">
-        <v>0.99588357483356</v>
+        <v>0.9979285662264533</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9927722047214108</v>
+        <v>0.9977363066095972</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9947093274045533</v>
+        <v>0.9981305027938548</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00315857446196625</v>
+        <v>0.001578443862118353</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002966565103992757</v>
+        <v>0.001822522662075565</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001719718564806566</v>
+        <v>0.00199261359647793</v>
       </c>
       <c r="J18" t="n">
-        <v>0.004872949744832785</v>
+        <v>0.001325927600902952</v>
       </c>
       <c r="K18" t="n">
-        <v>0.003296334154819676</v>
+        <v>0.001659293035498749</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006323909924108393</v>
+        <v>0.004517815495804627</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0562011962681067</v>
+        <v>0.03972963455807709</v>
       </c>
       <c r="N18" t="n">
-        <v>1.002460903143451</v>
+        <v>1.001229794487615</v>
       </c>
       <c r="O18" t="n">
-        <v>0.05859379754575463</v>
+        <v>0.04142100735289576</v>
       </c>
       <c r="P18" t="n">
-        <v>125.5152689455986</v>
+        <v>126.9026316293337</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.9911909630861</v>
+        <v>196.3785536468211</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9965500157990568</v>
+        <v>0.9982746442716303</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9967657089719517</v>
+        <v>0.998017154734832</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9958061610487668</v>
+        <v>0.9978855195245161</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9926433799581487</v>
+        <v>0.9976909099929988</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9946136729826212</v>
+        <v>0.9980922152663878</v>
       </c>
       <c r="G19" t="n">
-        <v>0.003220408814776344</v>
+        <v>0.001610543838069641</v>
       </c>
       <c r="H19" t="n">
-        <v>0.003019068705714974</v>
+        <v>0.001850899018186429</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001752059714590187</v>
+        <v>0.002034022327309163</v>
       </c>
       <c r="J19" t="n">
-        <v>0.004959802868512964</v>
+        <v>0.001352518051354739</v>
       </c>
       <c r="K19" t="n">
-        <v>0.003355931291551575</v>
+        <v>0.001693275556287517</v>
       </c>
       <c r="L19" t="n">
-        <v>0.006385713100224246</v>
+        <v>0.004562036792679895</v>
       </c>
       <c r="M19" t="n">
-        <v>0.05674864592901177</v>
+        <v>0.04013158155455179</v>
       </c>
       <c r="N19" t="n">
-        <v>1.002509079418868</v>
+        <v>1.001254804166087</v>
       </c>
       <c r="O19" t="n">
-        <v>0.05916455327210145</v>
+        <v>0.04184006606515538</v>
       </c>
       <c r="P19" t="n">
-        <v>125.4764939327481</v>
+        <v>126.8623667388045</v>
       </c>
       <c r="Q19" t="n">
-        <v>194.9524159502355</v>
+        <v>196.3382887562919</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9964823902722639</v>
+        <v>0.9982395504606525</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9967081883635969</v>
+        <v>0.9979860725473393</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9957272823218082</v>
+        <v>0.9978416541928292</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9925115912341208</v>
+        <v>0.9976443785171406</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9945159237735642</v>
+        <v>0.9980530829207368</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003283534275619917</v>
+        <v>0.001643302370177162</v>
       </c>
       <c r="H20" t="n">
-        <v>0.003072761668751272</v>
+        <v>0.00187991287586052</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001785012873128085</v>
+        <v>0.002076218538189612</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005048654282307971</v>
+        <v>0.001379773230175653</v>
       </c>
       <c r="K20" t="n">
-        <v>0.003416833577718028</v>
+        <v>0.001728007904850578</v>
       </c>
       <c r="L20" t="n">
-        <v>0.006448180738827624</v>
+        <v>0.004607221562691213</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05730213151026685</v>
+        <v>0.04053766606721657</v>
       </c>
       <c r="N20" t="n">
-        <v>1.002558261620172</v>
+        <v>1.001280326937707</v>
       </c>
       <c r="O20" t="n">
-        <v>0.05974160188042366</v>
+        <v>0.04226343843623512</v>
       </c>
       <c r="P20" t="n">
-        <v>125.437669827285</v>
+        <v>126.8220948429007</v>
       </c>
       <c r="Q20" t="n">
-        <v>194.9135918447724</v>
+        <v>196.2980168603881</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.996413390376358</v>
+        <v>0.9982037274523032</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9966493741326078</v>
+        <v>0.997954283007741</v>
       </c>
       <c r="D21" t="n">
-        <v>0.995646817350395</v>
+        <v>0.9977968665989136</v>
       </c>
       <c r="E21" t="n">
-        <v>0.99237713362348</v>
+        <v>0.9975968573273545</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9944161987583653</v>
+        <v>0.9980131445105863</v>
       </c>
       <c r="G21" t="n">
-        <v>0.003347942649702688</v>
+        <v>0.001676741576022788</v>
       </c>
       <c r="H21" t="n">
-        <v>0.003127662171733229</v>
+        <v>0.001909587015675946</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001818628716866532</v>
+        <v>0.002119301918276056</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005139305048441843</v>
+        <v>0.001407608120462579</v>
       </c>
       <c r="K21" t="n">
-        <v>0.003478966882654188</v>
+        <v>0.001763455684924155</v>
       </c>
       <c r="L21" t="n">
-        <v>0.006511299475235608</v>
+        <v>0.004653664911752949</v>
       </c>
       <c r="M21" t="n">
-        <v>0.05786140898476884</v>
+        <v>0.04094803506913107</v>
       </c>
       <c r="N21" t="n">
-        <v>1.002608443362649</v>
+        <v>1.001306380034689</v>
       </c>
       <c r="O21" t="n">
-        <v>0.06032468895487918</v>
+        <v>0.04269127769614207</v>
       </c>
       <c r="P21" t="n">
-        <v>125.3988185124401</v>
+        <v>126.7818058139765</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.8747405299275</v>
+        <v>196.2577278314639</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9963430216096187</v>
+        <v>0.9981671591437113</v>
       </c>
       <c r="C22" t="n">
-        <v>0.996589300389817</v>
+        <v>0.9979217672526085</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9955645904087381</v>
+        <v>0.9977510826511455</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9922402913872151</v>
+        <v>0.9975482943056146</v>
       </c>
       <c r="F22" t="n">
-        <v>0.994314600572736</v>
+        <v>0.997972327226147</v>
       </c>
       <c r="G22" t="n">
-        <v>0.003413628804621915</v>
+        <v>0.001710876486930109</v>
       </c>
       <c r="H22" t="n">
-        <v>0.003183738373695911</v>
+        <v>0.001939939045815559</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001852980658752263</v>
+        <v>0.002163343739930308</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005231563519329163</v>
+        <v>0.001436053249640019</v>
       </c>
       <c r="K22" t="n">
-        <v>0.003542267259556266</v>
+        <v>0.001799683519646465</v>
       </c>
       <c r="L22" t="n">
-        <v>0.006575041733843522</v>
+        <v>0.00470058365982814</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05842626810452568</v>
+        <v>0.04136274273945224</v>
       </c>
       <c r="N22" t="n">
-        <v>1.00265962064755</v>
+        <v>1.00133297516821</v>
       </c>
       <c r="O22" t="n">
-        <v>0.06091359529678364</v>
+        <v>0.04312364033055203</v>
       </c>
       <c r="P22" t="n">
-        <v>125.3599587758625</v>
+        <v>126.7414989486563</v>
       </c>
       <c r="Q22" t="n">
-        <v>194.8358807933499</v>
+        <v>196.2174209661437</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9962712259941832</v>
+        <v>0.9981298434247005</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9965278854770705</v>
+        <v>0.9978885345447289</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9954807309893042</v>
+        <v>0.9977044501965263</v>
       </c>
       <c r="E23" t="n">
-        <v>0.992100784716783</v>
+        <v>0.9974985330986876</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9942109979867765</v>
+        <v>0.9979306295214244</v>
       </c>
       <c r="G23" t="n">
-        <v>0.003480646860167702</v>
+        <v>0.001745709072656048</v>
       </c>
       <c r="H23" t="n">
-        <v>0.003241066498941644</v>
+        <v>0.00197096031987377</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001888014600729421</v>
+        <v>0.002208201781880779</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005325618340734915</v>
+        <v>0.00146520019948688</v>
       </c>
       <c r="K23" t="n">
-        <v>0.003606816470732168</v>
+        <v>0.001836692781182202</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006639449397540301</v>
+        <v>0.00474797248570632</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05899700721365197</v>
+        <v>0.04178168345885608</v>
       </c>
       <c r="N23" t="n">
-        <v>1.002711835640594</v>
+        <v>1.001360113872945</v>
       </c>
       <c r="O23" t="n">
-        <v>0.06150863195137826</v>
+        <v>0.04356041622370774</v>
       </c>
       <c r="P23" t="n">
-        <v>125.3210742462213</v>
+        <v>126.7011889210041</v>
       </c>
       <c r="Q23" t="n">
-        <v>194.7969962637087</v>
+        <v>196.1771109384915</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9961979435114142</v>
+        <v>0.998091745919315</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9964650937588225</v>
+        <v>0.997854544129968</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9953951943635116</v>
+        <v>0.9976567966404938</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9919582724275589</v>
+        <v>0.9974476715098224</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9941052146615829</v>
+        <v>0.9978880309418668</v>
       </c>
       <c r="G24" t="n">
-        <v>0.003549052841103352</v>
+        <v>0.001781271421646139</v>
       </c>
       <c r="H24" t="n">
-        <v>0.003299679811688208</v>
+        <v>0.002002688880046377</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001923749229053431</v>
+        <v>0.00225404207128983</v>
       </c>
       <c r="J24" t="n">
-        <v>0.005421699537924771</v>
+        <v>0.001494991683080954</v>
       </c>
       <c r="K24" t="n">
-        <v>0.003672724383489101</v>
+        <v>0.001874501624196062</v>
       </c>
       <c r="L24" t="n">
-        <v>0.006704549444737518</v>
+        <v>0.004795825448046021</v>
       </c>
       <c r="M24" t="n">
-        <v>0.05957392752793249</v>
+        <v>0.04220511132133334</v>
       </c>
       <c r="N24" t="n">
-        <v>1.002765131991699</v>
+        <v>1.001387821149589</v>
       </c>
       <c r="O24" t="n">
-        <v>0.06211011295782739</v>
+        <v>0.04400187028690716</v>
       </c>
       <c r="P24" t="n">
-        <v>125.2821490328334</v>
+        <v>126.6608557756646</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.7580710503208</v>
+        <v>196.136777793152</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9961232122134314</v>
+        <v>0.9980528885377609</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9964009485874601</v>
+        <v>0.9978198109339349</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9953078029545733</v>
+        <v>0.9976082908054593</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9918131732550843</v>
+        <v>0.9973956236169569</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9939974098666641</v>
+        <v>0.9978445539420765</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00361881122744546</v>
+        <v>0.001817543081684992</v>
       </c>
       <c r="H25" t="n">
-        <v>0.003359556513507438</v>
+        <v>0.002035110793932167</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001960258729962383</v>
+        <v>0.002300702209611611</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005519524801125018</v>
+        <v>0.001525478028100917</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0037398917655437</v>
+        <v>0.001913090118856264</v>
       </c>
       <c r="L25" t="n">
-        <v>0.006770307519196692</v>
+        <v>0.004844146477315479</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06015655598058669</v>
+        <v>0.04263265276387328</v>
       </c>
       <c r="N25" t="n">
-        <v>1.002819482026595</v>
+        <v>1.001416081063447</v>
       </c>
       <c r="O25" t="n">
-        <v>0.06271754510991825</v>
+        <v>0.04444761305378882</v>
       </c>
       <c r="P25" t="n">
-        <v>125.2432193945695</v>
+        <v>126.6205392900437</v>
       </c>
       <c r="Q25" t="n">
-        <v>194.719141412057</v>
+        <v>196.0964613075311</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9960469322394042</v>
+        <v>0.9980132306030972</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9963353717710499</v>
+        <v>0.9977843099304047</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9952186351766121</v>
+        <v>0.9975587679781518</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9916651506645955</v>
+        <v>0.9973424334145591</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9938874017411093</v>
+        <v>0.9978001653938088</v>
       </c>
       <c r="G26" t="n">
-        <v>0.003690015234895951</v>
+        <v>0.001854562022911364</v>
       </c>
       <c r="H26" t="n">
-        <v>0.003420769593136838</v>
+        <v>0.002068249422413629</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001997510344395362</v>
+        <v>0.002348340642608674</v>
       </c>
       <c r="J26" t="n">
-        <v>0.005619321020684336</v>
+        <v>0.001556633465385827</v>
       </c>
       <c r="K26" t="n">
-        <v>0.003808431924669403</v>
+        <v>0.001952487668504519</v>
       </c>
       <c r="L26" t="n">
-        <v>0.006836753546352532</v>
+        <v>0.004892936124765168</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06074549559346726</v>
+        <v>0.04306462612064993</v>
       </c>
       <c r="N26" t="n">
-        <v>1.002874958371342</v>
+        <v>1.001444923197748</v>
       </c>
       <c r="O26" t="n">
-        <v>0.06333155710139221</v>
+        <v>0.04489797641067159</v>
       </c>
       <c r="P26" t="n">
-        <v>125.2042493844803</v>
+        <v>126.5802134340949</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.6801714019677</v>
+        <v>196.0561354515823</v>
       </c>
     </row>
   </sheetData>
